--- a/program_collections_generator/data/Program Collections.xlsx
+++ b/program_collections_generator/data/Program Collections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtsueng\Anaconda3\envs\nde\nde_research\program_collections_generator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2892FC-9B47-46C0-A9E1-A0773C26083F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725E6D36-755D-4A9B-85E6-D82A38799D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4656" yWindow="2844" windowWidth="17280" windowHeight="10044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -225,9 +225,6 @@
     <t>https://www.niaid.nih.gov/research/vaccines-and-monoclonal-antibodies-pandemic-preparedness-revampp</t>
   </si>
   <si>
-    <t xml:space="preserve">AI181960       </t>
-  </si>
-  <si>
     <t>CEIRR</t>
   </si>
   <si>
@@ -3214,12 +3211,15 @@
   <si>
     <t>NBLs-RBLs</t>
   </si>
+  <si>
+    <t>AI181979| AI181797| AI181960| AI181881| AI181930| AI181977| AI181984| AI181968</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3367,6 +3367,13 @@
       <color rgb="FF000000"/>
       <name val="Arial, sans-serif"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3415,7 +3422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3459,6 +3466,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3680,10 +3688,10 @@
   <dimension ref="A1:L106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A61" sqref="A61"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3827,8 +3835,8 @@
       <c r="G4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>36</v>
+      <c r="H4" s="27" t="s">
+        <v>1005</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>35</v>
@@ -3842,31 +3850,31 @@
     </row>
     <row r="5" spans="1:12" ht="13.2">
       <c r="A5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>20</v>
@@ -3877,31 +3885,31 @@
     </row>
     <row r="6" spans="1:12" ht="13.2">
       <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>20</v>
@@ -3912,31 +3920,31 @@
     </row>
     <row r="7" spans="1:12" ht="13.2">
       <c r="A7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>20</v>
@@ -3947,31 +3955,31 @@
     </row>
     <row r="8" spans="1:12" ht="13.2">
       <c r="A8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="I8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>20</v>
@@ -3982,66 +3990,66 @@
     </row>
     <row r="9" spans="1:12" ht="13.8">
       <c r="A9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="I9" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="13.2">
       <c r="A10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="I10" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>20</v>
@@ -4052,31 +4060,31 @@
     </row>
     <row r="11" spans="1:12" ht="13.2">
       <c r="A11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>20</v>
@@ -4087,31 +4095,31 @@
     </row>
     <row r="12" spans="1:12" ht="13.2">
       <c r="A12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G12" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>20</v>
@@ -4122,31 +4130,31 @@
     </row>
     <row r="13" spans="1:12" ht="13.2">
       <c r="A13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>20</v>
@@ -4157,31 +4165,31 @@
     </row>
     <row r="14" spans="1:12" ht="13.2">
       <c r="A14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>20</v>
@@ -4192,31 +4200,31 @@
     </row>
     <row r="15" spans="1:12" ht="13.2">
       <c r="A15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="C15" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G15" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="I15" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>20</v>
@@ -4227,31 +4235,31 @@
     </row>
     <row r="16" spans="1:12" ht="13.2">
       <c r="A16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="C16" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>20</v>
@@ -4262,31 +4270,31 @@
     </row>
     <row r="17" spans="1:12" ht="13.2">
       <c r="A17" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>20</v>
@@ -4297,66 +4305,66 @@
     </row>
     <row r="18" spans="1:12" ht="13.2">
       <c r="A18" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="C18" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G18" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="13.2">
       <c r="A19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="C19" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="I19" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>20</v>
@@ -4367,136 +4375,136 @@
     </row>
     <row r="20" spans="1:12" ht="13.2">
       <c r="A20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="H20" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="13.2">
       <c r="A21" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G21" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="13.2">
       <c r="A22" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G22" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="13.2">
       <c r="A23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G23" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="I23" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>20</v>
@@ -4507,31 +4515,31 @@
     </row>
     <row r="24" spans="1:12" ht="13.2">
       <c r="A24" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>198</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>20</v>
@@ -4542,31 +4550,31 @@
     </row>
     <row r="25" spans="1:12" ht="13.2">
       <c r="A25" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G25" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="I25" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>20</v>
@@ -4577,31 +4585,31 @@
     </row>
     <row r="26" spans="1:12" ht="13.2">
       <c r="A26" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G26" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="I26" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>20</v>
@@ -4612,31 +4620,31 @@
     </row>
     <row r="27" spans="1:12" ht="13.2">
       <c r="A27" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="H27" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>20</v>
@@ -4647,31 +4655,31 @@
     </row>
     <row r="28" spans="1:12" ht="13.2">
       <c r="A28" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G28" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="I28" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>20</v>
@@ -4682,101 +4690,101 @@
     </row>
     <row r="29" spans="1:12" ht="13.2">
       <c r="A29" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G29" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="I29" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>20</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="13.2">
       <c r="A30" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G30" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="I30" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>20</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="13.2">
       <c r="A31" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G31" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="I31" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>20</v>
@@ -4787,31 +4795,31 @@
     </row>
     <row r="32" spans="1:12" ht="13.2">
       <c r="A32" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="H32" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="I32" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>261</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>20</v>
@@ -4822,31 +4830,31 @@
     </row>
     <row r="33" spans="1:12" ht="13.2">
       <c r="A33" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="H33" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="I33" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>20</v>
@@ -4857,31 +4865,31 @@
     </row>
     <row r="34" spans="1:12" ht="13.2">
       <c r="A34" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G34" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="I34" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>278</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>20</v>
@@ -4892,31 +4900,31 @@
     </row>
     <row r="35" spans="1:12" ht="13.2">
       <c r="A35" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G35" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="I35" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>286</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>20</v>
@@ -4927,31 +4935,31 @@
     </row>
     <row r="36" spans="1:12" ht="13.2">
       <c r="A36" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G36" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="I36" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>20</v>
@@ -4962,31 +4970,31 @@
     </row>
     <row r="37" spans="1:12" ht="13.2">
       <c r="A37" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="G37" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="H37" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="I37" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>20</v>
@@ -4997,31 +5005,31 @@
     </row>
     <row r="38" spans="1:12" ht="13.2">
       <c r="A38" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="G38" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="H38" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="I38" s="3" t="s">
         <v>310</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>311</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>20</v>
@@ -5032,31 +5040,31 @@
     </row>
     <row r="39" spans="1:12" ht="13.2">
       <c r="A39" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G39" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="I39" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>319</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>20</v>
@@ -5067,31 +5075,31 @@
     </row>
     <row r="40" spans="1:12" ht="13.2">
       <c r="A40" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G40" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="I40" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>327</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>20</v>
@@ -5102,31 +5110,31 @@
     </row>
     <row r="41" spans="1:12" ht="13.2">
       <c r="A41" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G41" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="I41" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>335</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>20</v>
@@ -5137,66 +5145,66 @@
     </row>
     <row r="42" spans="1:12" ht="13.2">
       <c r="A42" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G42" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>342</v>
-      </c>
       <c r="I42" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>20</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="13.2">
       <c r="A43" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G43" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="I43" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>20</v>
@@ -5207,31 +5215,31 @@
     </row>
     <row r="44" spans="1:12" ht="13.2">
       <c r="A44" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G44" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="I44" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>20</v>
@@ -5242,31 +5250,31 @@
     </row>
     <row r="45" spans="1:12" ht="13.2">
       <c r="A45" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G45" s="3" t="s">
+      <c r="H45" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="I45" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>20</v>
@@ -5277,31 +5285,31 @@
     </row>
     <row r="46" spans="1:12" ht="13.2">
       <c r="A46" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G46" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>371</v>
-      </c>
       <c r="I46" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>20</v>
@@ -5312,31 +5320,31 @@
     </row>
     <row r="47" spans="1:12" ht="13.2">
       <c r="A47" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>376</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G47" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="I47" s="3" t="s">
         <v>378</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>379</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>20</v>
@@ -5347,66 +5355,66 @@
     </row>
     <row r="48" spans="1:12" ht="13.2">
       <c r="A48" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>384</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G48" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="I48" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>20</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="13.2">
       <c r="A49" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G49" s="3" t="s">
+      <c r="H49" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="I49" s="3" t="s">
         <v>394</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>395</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>20</v>
@@ -5417,31 +5425,31 @@
     </row>
     <row r="50" spans="1:12" ht="13.2">
       <c r="A50" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>400</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G50" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="I50" s="3" t="s">
         <v>402</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>403</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>20</v>
@@ -5452,31 +5460,31 @@
     </row>
     <row r="51" spans="1:12" ht="13.2">
       <c r="A51" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="G51" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="H51" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="I51" s="6" t="s">
         <v>410</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>411</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>20</v>
@@ -5487,72 +5495,72 @@
     </row>
     <row r="52" spans="1:12" ht="13.2">
       <c r="A52" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G52" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="I52" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="J52" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>420</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>20</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="13.2">
       <c r="A53" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>426</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G53" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="I53" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="J53" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>429</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>20</v>
@@ -5563,31 +5571,31 @@
     </row>
     <row r="54" spans="1:12" ht="13.2">
       <c r="A54" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>434</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>21</v>
@@ -5601,31 +5609,31 @@
     </row>
     <row r="55" spans="1:12" ht="13.2">
       <c r="A55" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="G55" s="3" t="s">
         <v>441</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>442</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>21</v>
@@ -5639,34 +5647,34 @@
     </row>
     <row r="56" spans="1:12" ht="13.2">
       <c r="A56" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="F56" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G56" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G56" s="3" t="s">
+      <c r="H56" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="I56" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="J56" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>450</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>20</v>
@@ -5677,31 +5685,31 @@
     </row>
     <row r="57" spans="1:12" ht="13.2">
       <c r="A57" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="F57" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G57" s="3" t="s">
         <v>455</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>456</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>21</v>
@@ -5715,31 +5723,31 @@
     </row>
     <row r="58" spans="1:12" ht="13.2">
       <c r="A58" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="G58" s="3" t="s">
         <v>462</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>463</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>21</v>
@@ -5753,31 +5761,31 @@
     </row>
     <row r="59" spans="1:12" ht="13.2">
       <c r="A59" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>469</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>21</v>
@@ -5791,31 +5799,31 @@
     </row>
     <row r="60" spans="1:12" ht="13.2">
       <c r="A60" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>474</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G60" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="H60" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>476</v>
-      </c>
       <c r="I60" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>20</v>
@@ -5826,31 +5834,31 @@
     </row>
     <row r="61" spans="1:12" ht="13.2">
       <c r="A61" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>21</v>
@@ -5864,31 +5872,31 @@
     </row>
     <row r="62" spans="1:12" ht="13.2">
       <c r="A62" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>486</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>487</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G62" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="H62" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="H62" s="1" t="s">
-        <v>489</v>
-      </c>
       <c r="I62" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>20</v>
@@ -5899,31 +5907,31 @@
     </row>
     <row r="63" spans="1:12" ht="13.2">
       <c r="A63" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>494</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G63" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="H63" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="H63" s="1" t="s">
-        <v>496</v>
-      </c>
       <c r="I63" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>20</v>
@@ -5934,66 +5942,66 @@
     </row>
     <row r="64" spans="1:12" ht="13.2">
       <c r="A64" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>501</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G64" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="H64" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="H64" s="1" t="s">
-        <v>503</v>
-      </c>
       <c r="I64" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>20</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="13.2">
       <c r="A65" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>509</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G65" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="H65" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="H65" s="1" t="s">
-        <v>511</v>
-      </c>
       <c r="I65" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>20</v>
@@ -6004,66 +6012,66 @@
     </row>
     <row r="66" spans="1:12" ht="13.2">
       <c r="A66" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>515</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>516</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G66" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="H66" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="I66" s="3" t="s">
         <v>518</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>519</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>20</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="13.2">
       <c r="A67" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>525</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>21</v>
@@ -6077,31 +6085,31 @@
     </row>
     <row r="68" spans="1:12" ht="16.5" customHeight="1">
       <c r="A68" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="G68" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="H68" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="I68" s="3" t="s">
         <v>535</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>536</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>20</v>
@@ -6112,31 +6120,31 @@
     </row>
     <row r="69" spans="1:12" ht="13.2">
       <c r="A69" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>540</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>541</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>21</v>
@@ -6150,31 +6158,31 @@
     </row>
     <row r="70" spans="1:12" ht="13.2">
       <c r="A70" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>548</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G70" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="H70" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="H70" s="1" t="s">
-        <v>550</v>
-      </c>
       <c r="I70" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>20</v>
@@ -6185,31 +6193,31 @@
     </row>
     <row r="71" spans="1:12" ht="13.2">
       <c r="A71" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>555</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G71" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="H71" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="H71" s="1" t="s">
-        <v>557</v>
-      </c>
       <c r="I71" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>20</v>
@@ -6220,31 +6228,31 @@
     </row>
     <row r="72" spans="1:12" ht="13.2">
       <c r="A72" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>561</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>562</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G72" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="H72" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="H72" s="1" t="s">
-        <v>564</v>
-      </c>
       <c r="I72" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>20</v>
@@ -6255,31 +6263,31 @@
     </row>
     <row r="73" spans="1:12" ht="13.2">
       <c r="A73" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>568</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>569</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>21</v>
@@ -6293,31 +6301,31 @@
     </row>
     <row r="74" spans="1:12" ht="13.2">
       <c r="A74" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>575</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>576</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G74" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="H74" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="H74" s="1" t="s">
-        <v>578</v>
-      </c>
       <c r="I74" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>20</v>
@@ -6328,31 +6336,31 @@
     </row>
     <row r="75" spans="1:12" ht="13.2">
       <c r="A75" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>582</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>583</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>21</v>
@@ -6366,31 +6374,31 @@
     </row>
     <row r="76" spans="1:12" ht="13.2">
       <c r="A76" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>21</v>
@@ -6404,31 +6412,31 @@
     </row>
     <row r="77" spans="1:12" ht="13.2">
       <c r="A77" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>594</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>595</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G77" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="H77" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="H77" s="1" t="s">
-        <v>597</v>
-      </c>
       <c r="I77" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>20</v>
@@ -6439,31 +6447,31 @@
     </row>
     <row r="78" spans="1:12" ht="13.2">
       <c r="A78" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>601</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>602</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G78" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="H78" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="H78" s="1" t="s">
-        <v>604</v>
-      </c>
       <c r="I78" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>20</v>
@@ -6474,34 +6482,34 @@
     </row>
     <row r="79" spans="1:12" ht="13.2">
       <c r="A79" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>608</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>609</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G79" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="H79" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="I79" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="J79" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>612</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>20</v>
@@ -6512,31 +6520,31 @@
     </row>
     <row r="80" spans="1:12" ht="13.2">
       <c r="A80" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>616</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>617</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>21</v>
@@ -6550,31 +6558,31 @@
     </row>
     <row r="81" spans="1:12" ht="13.2">
       <c r="A81" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>624</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>21</v>
@@ -6588,72 +6596,72 @@
     </row>
     <row r="82" spans="1:12" ht="13.2">
       <c r="A82" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>629</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>630</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G82" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="H82" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="I82" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="J82" s="1" t="s">
         <v>632</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>633</v>
       </c>
       <c r="K82" s="1" t="s">
         <v>20</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="13.2">
       <c r="A83" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>638</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>639</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G83" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="H83" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="H83" s="1" t="s">
+      <c r="I83" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="J83" s="1" t="s">
         <v>641</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>642</v>
       </c>
       <c r="K83" s="1" t="s">
         <v>20</v>
@@ -6664,31 +6672,31 @@
     </row>
     <row r="84" spans="1:12" ht="13.2">
       <c r="A84" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>647</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>21</v>
@@ -6702,31 +6710,31 @@
     </row>
     <row r="85" spans="1:12" ht="13.2">
       <c r="A85" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>652</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>653</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>21</v>
@@ -6740,72 +6748,72 @@
     </row>
     <row r="86" spans="1:12" ht="13.2">
       <c r="A86" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="E86" s="1" t="s">
         <v>658</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>659</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G86" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="H86" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="H86" s="1" t="s">
+      <c r="I86" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="J86" s="1" t="s">
         <v>661</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>662</v>
       </c>
       <c r="K86" s="1" t="s">
         <v>20</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="13.2">
       <c r="A87" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>667</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>668</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G87" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="H87" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="H87" s="1" t="s">
+      <c r="I87" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="J87" s="1" t="s">
         <v>670</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>671</v>
       </c>
       <c r="K87" s="1" t="s">
         <v>20</v>
@@ -6816,69 +6824,69 @@
     </row>
     <row r="88" spans="1:12" ht="13.2">
       <c r="A88" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>676</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G88" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="H88" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="H88" s="1" t="s">
+      <c r="I88" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="J88" s="1" t="s">
         <v>678</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>679</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>20</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="13.2">
       <c r="A89" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>684</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>685</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>21</v>
@@ -6892,31 +6900,31 @@
     </row>
     <row r="90" spans="1:12" ht="13.2">
       <c r="A90" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>690</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>691</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>21</v>
@@ -6930,514 +6938,514 @@
     </row>
     <row r="91" spans="1:12" ht="13.2">
       <c r="A91" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="B91" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="D91" s="1" t="s">
+      <c r="E91" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="I91" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="E91" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="F91" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="G91" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="H91" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="I91" s="3" t="s">
+      <c r="K91" s="1" t="s">
         <v>695</v>
-      </c>
-      <c r="K91" s="1" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="13.2">
       <c r="A92" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D92" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="I92" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="E92" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="G92" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="H92" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="I92" s="3" t="s">
+      <c r="K92" s="1" t="s">
         <v>698</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="13.2">
       <c r="A93" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D93" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="I93" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="E93" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="F93" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="G93" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="H93" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="I93" s="3" t="s">
+      <c r="K93" s="1" t="s">
         <v>701</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="13.2">
       <c r="A94" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D94" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="H94" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="I94" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="E94" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="F94" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="G94" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="H94" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>704</v>
-      </c>
       <c r="K94" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="13.2">
       <c r="A95" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D95" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="I95" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="E95" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="G95" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="H95" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>706</v>
-      </c>
       <c r="K95" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="13.2">
       <c r="A96" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D96" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="H96" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="I96" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="E96" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="F96" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="G96" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="H96" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>708</v>
-      </c>
       <c r="K96" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="13.2">
       <c r="A97" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D97" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="H97" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="I97" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="E97" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="F97" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="G97" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="H97" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="I97" s="3" t="s">
+      <c r="K97" s="1" t="s">
         <v>710</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="13.2">
       <c r="A98" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D98" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="I98" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="E98" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="G98" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="H98" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>713</v>
-      </c>
       <c r="K98" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="13.2">
       <c r="A99" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D99" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="I99" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="E99" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="F99" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="G99" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="H99" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>715</v>
-      </c>
       <c r="K99" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="13.2">
       <c r="A100" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D100" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="I100" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="E100" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="F100" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="G100" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="H100" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="I100" s="3" t="s">
+      <c r="K100" s="1" t="s">
         <v>717</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="13.2">
       <c r="A101" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D101" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="H101" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="I101" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="E101" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="G101" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="H101" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>720</v>
-      </c>
       <c r="K101" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="13.2">
       <c r="A102" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D102" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="G102" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="H102" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="I102" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="E102" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="F102" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="G102" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="H102" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>722</v>
-      </c>
       <c r="K102" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="13.2">
       <c r="A103" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D103" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="I103" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="E103" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="F103" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="G103" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="H103" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>724</v>
-      </c>
       <c r="K103" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="13.2">
       <c r="A104" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D104" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="G104" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="H104" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="I104" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="E104" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="F104" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="G104" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="H104" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>726</v>
-      </c>
       <c r="K104" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="13.2">
       <c r="A105" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D105" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="I105" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="E105" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="F105" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="G105" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="H105" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>728</v>
-      </c>
       <c r="K105" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="13.2">
       <c r="A106" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D106" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="H106" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="I106" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="E106" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="F106" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="G106" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="H106" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>730</v>
-      </c>
       <c r="K106" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
   </sheetData>
@@ -7668,35 +7676,35 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>731</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>732</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>733</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>736</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>737</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>738</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>739</v>
       </c>
       <c r="J1" s="10"/>
       <c r="K1" s="10" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
@@ -7716,31 +7724,31 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>741</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>742</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>743</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>744</v>
       </c>
       <c r="E2" s="12" t="b">
         <v>1</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="13"/>
       <c r="I2" s="12" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="12" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="L2" s="12"/>
       <c r="M2" s="13"/>
@@ -7760,33 +7768,33 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="11" t="s">
+        <v>747</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>748</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>749</v>
-      </c>
       <c r="C3" s="12" t="s">
+        <v>742</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>743</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>744</v>
       </c>
       <c r="E3" s="12" t="b">
         <v>1</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="13" t="s">
+        <v>750</v>
+      </c>
+      <c r="I3" t="s">
         <v>751</v>
-      </c>
-      <c r="I3" t="s">
-        <v>752</v>
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="12" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="L3" s="12"/>
       <c r="M3" s="13"/>
@@ -7806,14 +7814,14 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="13" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="12" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E4" s="12" t="b">
         <v>1</v>
@@ -7821,10 +7829,10 @@
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="13" t="s">
+        <v>753</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>754</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>755</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
@@ -7846,35 +7854,35 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="11" t="s">
+        <v>755</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>756</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>757</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>758</v>
-      </c>
       <c r="D5" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E5" s="12" t="b">
         <v>1</v>
       </c>
       <c r="F5" s="14" t="s">
+        <v>758</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>759</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="H5" s="13" t="s">
         <v>760</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="I5" s="12" t="s">
         <v>761</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>762</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="L5" s="12"/>
       <c r="M5" s="13"/>
@@ -7894,25 +7902,25 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="13" t="s">
+        <v>763</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>764</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>765</v>
-      </c>
       <c r="C6" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E6" s="12" t="b">
         <v>1</v>
       </c>
       <c r="F6" s="14" t="s">
+        <v>765</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>766</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>767</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="12"/>
@@ -7936,33 +7944,33 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="11" t="s">
+        <v>767</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>768</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>769</v>
-      </c>
       <c r="C7" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E7" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="11" t="s">
+        <v>770</v>
+      </c>
+      <c r="I7" s="12" t="s">
         <v>771</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>772</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="16" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="L7" s="12"/>
       <c r="M7" s="13"/>
@@ -7982,22 +7990,22 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="11" t="s">
+        <v>773</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>774</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>775</v>
-      </c>
       <c r="C9" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E9" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="13"/>
@@ -8022,33 +8030,33 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="11" t="s">
+        <v>776</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>777</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>778</v>
-      </c>
       <c r="C10" s="12" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E10" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="11" t="s">
+        <v>779</v>
+      </c>
+      <c r="I10" s="12" t="s">
         <v>780</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>781</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="12" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="L10" s="12"/>
       <c r="M10" s="13"/>
@@ -8068,31 +8076,31 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="11" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E11" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="13" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="12" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="L11" s="12"/>
       <c r="M11" s="13"/>
@@ -8112,33 +8120,33 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="11" t="s">
+        <v>786</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>787</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>788</v>
-      </c>
       <c r="C12" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E12" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="13" t="s">
+        <v>789</v>
+      </c>
+      <c r="I12" s="12" t="s">
         <v>790</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>791</v>
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="12" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="L12" s="12"/>
       <c r="M12" s="13"/>
@@ -8158,22 +8166,22 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="11" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E13" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="13"/>
@@ -8198,29 +8206,29 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="11" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E14" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="11" t="s">
+        <v>796</v>
+      </c>
+      <c r="I14" s="12" t="s">
         <v>797</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>798</v>
       </c>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
@@ -8242,33 +8250,33 @@
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E15" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="13" t="s">
+        <v>798</v>
+      </c>
+      <c r="I15" s="12" t="s">
         <v>799</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>800</v>
       </c>
       <c r="J15" s="12"/>
       <c r="K15" s="12" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="L15" s="12"/>
       <c r="M15" s="13"/>
@@ -8288,31 +8296,31 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="13" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E16" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="13" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L16" s="12"/>
       <c r="M16" s="13"/>
@@ -8332,22 +8340,22 @@
     </row>
     <row r="17" spans="1:26">
       <c r="A17" s="13" t="s">
+        <v>804</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>805</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>806</v>
-      </c>
       <c r="C17" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E17" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="13"/>
@@ -8372,26 +8380,26 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E18" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="18" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -8414,14 +8422,14 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="12" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E19" s="12" t="b">
         <v>0</v>
@@ -8429,7 +8437,7 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -8452,26 +8460,26 @@
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="11" t="s">
+        <v>812</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>813</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>814</v>
-      </c>
       <c r="C20" s="12" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E20" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -8494,22 +8502,22 @@
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E21" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="13"/>
@@ -8534,22 +8542,22 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E22" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="13"/>
@@ -8574,22 +8582,22 @@
     </row>
     <row r="23" spans="1:26">
       <c r="A23" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E23" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="13"/>
@@ -8614,22 +8622,22 @@
     </row>
     <row r="24" spans="1:26">
       <c r="A24" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E24" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="13"/>
@@ -8654,22 +8662,22 @@
     </row>
     <row r="25" spans="1:26">
       <c r="A25" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E25" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="13"/>
@@ -8694,22 +8702,22 @@
     </row>
     <row r="26" spans="1:26">
       <c r="A26" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E26" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="13"/>
@@ -8734,22 +8742,22 @@
     </row>
     <row r="27" spans="1:26">
       <c r="A27" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E27" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="13"/>
@@ -8774,22 +8782,22 @@
     </row>
     <row r="28" spans="1:26">
       <c r="A28" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E28" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="13"/>
@@ -8814,22 +8822,22 @@
     </row>
     <row r="29" spans="1:26">
       <c r="A29" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E29" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="13"/>
@@ -8854,22 +8862,22 @@
     </row>
     <row r="30" spans="1:26">
       <c r="A30" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E30" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="13"/>
@@ -8894,22 +8902,22 @@
     </row>
     <row r="31" spans="1:26">
       <c r="A31" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E31" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G31" s="12"/>
       <c r="H31" s="13"/>
@@ -8934,22 +8942,22 @@
     </row>
     <row r="32" spans="1:26">
       <c r="A32" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E32" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G32" s="12"/>
       <c r="H32" s="13"/>
@@ -8974,22 +8982,22 @@
     </row>
     <row r="33" spans="1:26">
       <c r="A33" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E33" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G33" s="12"/>
       <c r="H33" s="13"/>
@@ -9014,22 +9022,22 @@
     </row>
     <row r="34" spans="1:26">
       <c r="A34" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E34" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G34" s="12"/>
       <c r="H34" s="13"/>
@@ -9054,22 +9062,22 @@
     </row>
     <row r="35" spans="1:26">
       <c r="A35" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E35" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G35" s="12"/>
       <c r="H35" s="13"/>
@@ -9094,22 +9102,22 @@
     </row>
     <row r="36" spans="1:26">
       <c r="A36" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E36" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G36" s="12"/>
       <c r="H36" s="13"/>
@@ -9134,20 +9142,20 @@
     </row>
     <row r="37" spans="1:26">
       <c r="A37" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="12" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E37" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G37" s="12"/>
       <c r="H37" s="13"/>
@@ -9172,20 +9180,20 @@
     </row>
     <row r="38" spans="1:26">
       <c r="A38" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="12" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E38" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G38" s="12"/>
       <c r="H38" s="13"/>
@@ -9210,20 +9218,20 @@
     </row>
     <row r="39" spans="1:26">
       <c r="A39" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="12" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E39" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G39" s="12"/>
       <c r="H39" s="13"/>
@@ -9248,20 +9256,20 @@
     </row>
     <row r="40" spans="1:26">
       <c r="A40" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="12" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E40" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G40" s="12"/>
       <c r="H40" s="13"/>
@@ -9286,20 +9294,20 @@
     </row>
     <row r="41" spans="1:26">
       <c r="A41" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B41" s="13"/>
       <c r="C41" s="12" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E41" s="12" t="b">
         <v>0</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G41" s="12"/>
       <c r="H41" s="13"/>
@@ -9324,16 +9332,16 @@
     </row>
     <row r="42" spans="1:26">
       <c r="A42" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E42" s="12" t="b">
         <v>0</v>
@@ -9362,14 +9370,14 @@
     </row>
     <row r="43" spans="1:26">
       <c r="A43" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="12" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E43" s="12" t="b">
         <v>0</v>
@@ -9397,16 +9405,16 @@
     </row>
     <row r="44" spans="1:26">
       <c r="A44" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E44" s="12" t="b">
         <v>0</v>
@@ -9435,14 +9443,14 @@
     </row>
     <row r="45" spans="1:26">
       <c r="A45" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B45" s="13"/>
       <c r="C45" s="12" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E45" s="12" t="b">
         <v>0</v>
@@ -9471,14 +9479,14 @@
     </row>
     <row r="46" spans="1:26">
       <c r="A46" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B46" s="13"/>
       <c r="C46" s="12" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E46" s="12" t="b">
         <v>0</v>
@@ -9507,14 +9515,14 @@
     </row>
     <row r="47" spans="1:26">
       <c r="A47" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="12" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E47" s="12" t="b">
         <v>0</v>
@@ -9543,14 +9551,14 @@
     </row>
     <row r="48" spans="1:26">
       <c r="A48" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B48" s="13"/>
       <c r="C48" s="12" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E48" s="12" t="b">
         <v>0</v>
@@ -9579,14 +9587,14 @@
     </row>
     <row r="49" spans="1:26">
       <c r="A49" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B49" s="13"/>
       <c r="C49" s="12" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E49" s="12" t="b">
         <v>0</v>
@@ -9615,16 +9623,16 @@
     </row>
     <row r="50" spans="1:26">
       <c r="A50" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E50" s="12" t="b">
         <v>0</v>
@@ -9653,14 +9661,14 @@
     </row>
     <row r="51" spans="1:26">
       <c r="A51" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B51" s="13"/>
       <c r="C51" s="12" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E51" s="12" t="b">
         <v>0</v>
@@ -9689,16 +9697,16 @@
     </row>
     <row r="52" spans="1:26">
       <c r="A52" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E52" s="12" t="b">
         <v>0</v>
@@ -9727,16 +9735,16 @@
     </row>
     <row r="53" spans="1:26">
       <c r="A53" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B53" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E53" s="12" t="b">
         <v>0</v>
@@ -9765,16 +9773,16 @@
     </row>
     <row r="54" spans="1:26">
       <c r="A54" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E54" s="12" t="b">
         <v>0</v>
@@ -9803,16 +9811,16 @@
     </row>
     <row r="55" spans="1:26">
       <c r="A55" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E55" s="12" t="b">
         <v>0</v>
@@ -9841,14 +9849,14 @@
     </row>
     <row r="56" spans="1:26">
       <c r="A56" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="12" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E56" s="12" t="b">
         <v>0</v>
@@ -9877,16 +9885,16 @@
     </row>
     <row r="57" spans="1:26">
       <c r="A57" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E57" s="12" t="b">
         <v>0</v>
@@ -9915,16 +9923,16 @@
     </row>
     <row r="58" spans="1:26">
       <c r="A58" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E58" s="12" t="b">
         <v>0</v>
@@ -9953,14 +9961,14 @@
     </row>
     <row r="59" spans="1:26">
       <c r="A59" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B59" s="13"/>
       <c r="C59" s="12" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E59" s="12" t="b">
         <v>0</v>
@@ -9989,16 +9997,16 @@
     </row>
     <row r="60" spans="1:26">
       <c r="A60" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E60" s="12" t="b">
         <v>0</v>
@@ -10027,16 +10035,16 @@
     </row>
     <row r="61" spans="1:26">
       <c r="A61" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E61" s="12" t="b">
         <v>0</v>
@@ -10065,16 +10073,16 @@
     </row>
     <row r="62" spans="1:26">
       <c r="A62" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E62" s="12" t="b">
         <v>0</v>
@@ -35967,24 +35975,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="19" t="s">
+        <v>842</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>843</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>844</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>845</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>846</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="22"/>
@@ -35993,324 +36001,324 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="21" t="s">
+        <v>848</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>849</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="C3" s="22" t="s">
         <v>850</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>851</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="E3" s="21" t="s">
         <v>852</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="21" t="s">
+        <v>853</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>854</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="C4" s="21" t="s">
         <v>855</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="D4" s="21" t="s">
         <v>856</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="E4" s="21" t="s">
         <v>857</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="21" t="s">
+        <v>858</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>859</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="C5" s="21" t="s">
         <v>860</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="D5" s="21" t="s">
         <v>861</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="E5" s="21" t="s">
         <v>862</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="21" t="s">
+        <v>863</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>864</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="C6" s="22" t="s">
         <v>865</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>866</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="E6" s="21" t="s">
         <v>867</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="21" t="s">
+        <v>868</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>869</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="C7" s="21" t="s">
         <v>870</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="D7" s="21" t="s">
         <v>871</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="E7" s="21" t="s">
         <v>872</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="21" t="s">
+        <v>873</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>874</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="C8" s="22" t="s">
         <v>875</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="D8" s="21" t="s">
         <v>876</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="E8" s="21" t="s">
         <v>877</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="21" t="s">
+        <v>878</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>879</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="C9" s="21" t="s">
         <v>880</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="D9" s="21" t="s">
         <v>881</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="E9" s="21" t="s">
         <v>882</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="21" t="s">
+        <v>883</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>884</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="C10" s="22" t="s">
         <v>885</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>886</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="E10" s="21" t="s">
         <v>887</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="21" t="s">
+        <v>888</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>889</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="C11" s="22" t="s">
         <v>890</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="D11" s="21" t="s">
         <v>891</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="E11" s="21" t="s">
         <v>892</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="21" t="s">
+        <v>893</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>894</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="C12" s="22" t="s">
         <v>895</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="D12" s="21" t="s">
         <v>896</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="E12" s="21" t="s">
         <v>897</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="21" t="s">
+        <v>898</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>899</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="C13" s="22" t="s">
         <v>900</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="D13" s="21" t="s">
         <v>901</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="E13" s="21" t="s">
         <v>902</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="21" t="s">
+        <v>903</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>904</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="C14" s="21" t="s">
         <v>905</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="D14" s="21" t="s">
         <v>906</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="E14" s="21" t="s">
         <v>907</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="21" t="s">
+        <v>908</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>864</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>909</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>865</v>
-      </c>
-      <c r="C15" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>910</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="E15" s="21" t="s">
         <v>911</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="21" t="s">
+        <v>912</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>913</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="C16" s="22" t="s">
         <v>914</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="D16" s="21" t="s">
         <v>915</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="E16" s="21" t="s">
         <v>916</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="21" t="s">
+        <v>917</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>918</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="C17" s="21" t="s">
         <v>919</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="D17" s="21" t="s">
         <v>920</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="E17" s="21" t="s">
         <v>921</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="21" t="s">
+        <v>922</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>923</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="C18" s="22" t="s">
         <v>924</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="D18" s="21" t="s">
         <v>925</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="E18" s="21" t="s">
         <v>926</v>
       </c>
-      <c r="E18" s="21" t="s">
+    </row>
+    <row r="20" spans="1:5" ht="13.2">
+      <c r="A20" s="6" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="6" t="s">
+    <row r="21" spans="1:5" ht="13.2">
+      <c r="A21" s="1" t="s">
         <v>928</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.4">
       <c r="A22" s="23" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.4">
       <c r="A23" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.4">
       <c r="A24" s="23" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.4">
       <c r="A25" s="23" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="13.2">
       <c r="A26" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>934</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>935</v>
       </c>
     </row>
   </sheetData>
@@ -36333,184 +36341,184 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13.2">
       <c r="A1" s="24" t="s">
+        <v>935</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>936</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="C1" s="24" t="s">
         <v>937</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="24" t="s">
         <v>938</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>939</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="24" t="s">
         <v>940</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="25" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B2" s="25">
         <v>2</v>
       </c>
       <c r="C2" s="25" t="s">
+        <v>942</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>943</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="E2" s="25" t="s">
         <v>944</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="F2" s="25" t="s">
         <v>945</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="25" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B3" s="25">
         <v>2</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D3" s="25" t="s">
+        <v>946</v>
+      </c>
+      <c r="E3" s="25" t="s">
         <v>947</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="F3" s="25" t="s">
         <v>948</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="25" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B4" s="25">
         <v>2</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D4" s="25" t="s">
+        <v>949</v>
+      </c>
+      <c r="E4" s="25" t="s">
         <v>950</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="F4" s="25" t="s">
         <v>951</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="25" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B5" s="25">
         <v>2</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D5" s="25" t="s">
+        <v>952</v>
+      </c>
+      <c r="E5" s="25" t="s">
         <v>953</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="F5" s="25" t="s">
         <v>954</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="25" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B6" s="25">
         <v>1</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D6" s="25" t="s">
+        <v>955</v>
+      </c>
+      <c r="E6" s="25" t="s">
         <v>956</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="F6" s="25" t="s">
         <v>957</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="25" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B7" s="25">
         <v>1</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D7" s="25" t="s">
+        <v>958</v>
+      </c>
+      <c r="E7" s="25" t="s">
         <v>959</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="F7" s="25" t="s">
         <v>960</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="25" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B8" s="25">
         <v>1</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D8" s="25" t="s">
+        <v>961</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>962</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="F8" s="25" t="s">
         <v>963</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="25" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B9" s="25">
         <v>1</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D9" s="25" t="s">
+        <v>964</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>965</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="F9" s="25" t="s">
         <v>966</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>967</v>
       </c>
     </row>
   </sheetData>
@@ -36534,42 +36542,42 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>968</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>970</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>972</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>974</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>976</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>977</v>
       </c>
     </row>
   </sheetData>
@@ -36601,13 +36609,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="26" t="s">
         <v>979</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -36615,10 +36623,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>981</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -36626,10 +36634,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>983</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -36637,10 +36645,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>985</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -36648,10 +36656,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>987</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -36659,10 +36667,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="C6" s="26" t="s">
         <v>989</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -36670,10 +36678,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>991</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -36681,10 +36689,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>993</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -36692,10 +36700,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>995</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -36703,10 +36711,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>997</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -36714,10 +36722,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>999</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -36725,10 +36733,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C12" s="26" t="s">
         <v>1001</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -36736,10 +36744,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C13" s="26" t="s">
         <v>1003</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="14" spans="1:3">
